--- a/Macro_III/Lista_01/ex7/dados.xlsx
+++ b/Macro_III/Lista_01/ex7/dados.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ANO</t>
   </si>
@@ -66,26 +66,34 @@
     <t>Selic</t>
   </si>
   <si>
-    <t>Consumo Final (R$ milhoes - Ano Base 2000)</t>
-  </si>
-  <si>
     <t>Consumo final</t>
   </si>
   <si>
     <t>R_s</t>
   </si>
   <si>
-    <t>IGP-DI (Ano base 2000)</t>
-  </si>
-  <si>
-    <t>Ibovespa
-(Ano base 2000)</t>
-  </si>
-  <si>
     <t>R_f</t>
   </si>
   <si>
-    <t>Infl.</t>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>CONS_FINAL</t>
+  </si>
+  <si>
+    <t>CONS_PC</t>
+  </si>
+  <si>
+    <t>VAR_CONS_PC</t>
+  </si>
+  <si>
+    <t>IGP_DI</t>
+  </si>
+  <si>
+    <t>INFLACAO</t>
+  </si>
+  <si>
+    <t>IBOVESPA_DEF</t>
   </si>
 </sst>
 </file>
@@ -94,7 +102,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -120,18 +128,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,12 +162,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -449,55 +449,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="5" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -513,15 +521,20 @@
       <c r="E2" s="4">
         <v>270644.25599999999</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
+        <f>E2/D2*1000000</f>
+        <v>1730.1196325287267</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6">
         <v>0.3785852940191391</v>
       </c>
-      <c r="H2" s="8">
-        <f t="shared" ref="H2:H8" si="0">B2/F2</f>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J8" si="0">B2/H2</f>
         <v>11500.499540745212</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -537,27 +550,36 @@
       <c r="E3" s="4">
         <v>589145.34464603802</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F21" si="1">E3/D3*1000000</f>
+        <v>3708.232773253505</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3/F2-1</f>
+        <v>1.1433389365298323</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.63396967074093591</v>
       </c>
-      <c r="G3" s="9">
-        <f>(F3/F2-1)*100</f>
+      <c r="I3" s="8">
+        <f>(H3/H2-1)*100</f>
         <v>67.457553358870314</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>6781.0814908158827</v>
       </c>
-      <c r="I3" s="9">
-        <f>(H3/H2-1)*100</f>
+      <c r="K3" s="8">
+        <f>(J3/J2-1)*100</f>
         <v>-41.036635262745456</v>
       </c>
-      <c r="J3" s="7">
-        <f>C3-G3</f>
+      <c r="L3" s="6">
+        <f>C3-I3</f>
         <v>-28.537553358870312</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -573,27 +595,36 @@
       <c r="E4" s="4">
         <v>715338.773312103</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>4434.1973799938369</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G21" si="2">F4/F3-1</f>
+        <v>0.19577104543612278</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.70430882336536416</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G22" si="1">(F4/F3-1)*100</f>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I22" si="3">(H4/H3-1)*100</f>
         <v>11.095034332197805</v>
       </c>
-      <c r="H4" s="8">
+      <c r="J4" s="7">
         <f t="shared" si="0"/>
         <v>9995.5300380327499</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I22" si="2">(H4/H3-1)*100</f>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K22" si="4">(J4/J3-1)*100</f>
         <v>47.403184161264413</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" ref="J4:J22" si="3">C4-G4</f>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L22" si="5">C4-I4</f>
         <v>12.844965667802196</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -609,27 +640,36 @@
       <c r="E5" s="4">
         <v>796147.10805906705</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>4861.0816279532828</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>9.6270917006414214E-2</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.76003417381568372</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="1"/>
+      <c r="I5" s="8">
+        <f t="shared" si="3"/>
         <v>7.9120619537392578</v>
       </c>
-      <c r="H5" s="8">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>13415.844117652476</v>
       </c>
-      <c r="I5" s="9">
-        <f t="shared" si="2"/>
+      <c r="K5" s="8">
+        <f t="shared" si="4"/>
         <v>34.21843630708441</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" si="3"/>
+      <c r="L5" s="6">
+        <f t="shared" si="5"/>
         <v>34.207938046260736</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -645,27 +685,36 @@
       <c r="E6" s="4">
         <v>832102.18808447698</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>5005.0630827835193</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9619221780247784E-2</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.78957833560176649</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" si="1"/>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
         <v>3.887214917950188</v>
       </c>
-      <c r="H6" s="8">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>8592.3076838594334</v>
       </c>
-      <c r="I6" s="9">
-        <f t="shared" si="2"/>
+      <c r="K6" s="8">
+        <f t="shared" si="4"/>
         <v>-35.95402862087721</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="3"/>
+      <c r="L6" s="6">
+        <f t="shared" si="5"/>
         <v>29.062785082049814</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -681,27 +730,36 @@
       <c r="E7" s="4">
         <v>905549.87054350204</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>5366.1085044509282</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2136038186878748E-2</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.87895275245501359</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="1"/>
+      <c r="I7" s="8">
+        <f t="shared" si="3"/>
         <v>11.319259004887927</v>
       </c>
-      <c r="H7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>19445.413820323382</v>
       </c>
-      <c r="I7" s="9">
-        <f t="shared" si="2"/>
+      <c r="K7" s="8">
+        <f t="shared" si="4"/>
         <v>126.31188891025636</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" si="3"/>
+      <c r="L7" s="6">
+        <f t="shared" si="5"/>
         <v>9.6607409951120733</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -717,27 +775,36 @@
       <c r="E8" s="4">
         <v>985026</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>5750.9731353037714</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1721365778127044E-2</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
-        <f t="shared" si="1"/>
+      <c r="I8" s="8">
+        <f t="shared" si="3"/>
         <v>13.771758175497805</v>
       </c>
-      <c r="H8" s="8">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>15259.2</v>
       </c>
-      <c r="I8" s="9">
-        <f t="shared" si="2"/>
+      <c r="K8" s="8">
+        <f t="shared" si="4"/>
         <v>-21.528026397402545</v>
       </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
+      <c r="L8" s="6">
+        <f t="shared" si="5"/>
         <v>1.5882418245021945</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -753,27 +820,36 @@
       <c r="E9" s="4">
         <v>1084511</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>6239.7066740479913</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>8.498275461312943E-2</v>
+      </c>
+      <c r="H9" s="6">
         <v>1.1036105084516854</v>
       </c>
-      <c r="G9" s="9">
-        <f t="shared" si="1"/>
+      <c r="I9" s="8">
+        <f t="shared" si="3"/>
         <v>10.36105084516854</v>
       </c>
-      <c r="H9" s="8">
-        <f>B9/F9</f>
+      <c r="J9" s="7">
+        <f>B9/H9</f>
         <v>12302.800576852613</v>
       </c>
-      <c r="I9" s="9">
-        <f t="shared" si="2"/>
+      <c r="K9" s="8">
+        <f t="shared" si="4"/>
         <v>-19.374537479994935</v>
       </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
+      <c r="L9" s="6">
+        <f t="shared" si="5"/>
         <v>7.7089491548314601</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -789,27 +865,36 @@
       <c r="E10" s="4">
         <v>1216102</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>6897.7593175339453</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10546211190069354</v>
+      </c>
+      <c r="H10" s="6">
         <v>1.2526470092332298</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
+      <c r="I10" s="8">
+        <f t="shared" si="3"/>
         <v>13.504447415115294</v>
       </c>
-      <c r="H10" s="8">
-        <f>B10/F10</f>
+      <c r="J10" s="7">
+        <f>B10/H10</f>
         <v>8995.6707012757033</v>
       </c>
-      <c r="I10" s="9">
-        <f t="shared" si="2"/>
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
         <v>-26.881114222067339</v>
       </c>
-      <c r="J10" s="7">
-        <f t="shared" si="3"/>
+      <c r="L10" s="6">
+        <f t="shared" si="5"/>
         <v>9.5255525848847071</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -825,27 +910,36 @@
       <c r="E11" s="4">
         <v>1382355</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>7733.826115237358</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12120846193895884</v>
+      </c>
+      <c r="H11" s="6">
         <v>1.5382182402761575</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" si="1"/>
+      <c r="I11" s="8">
+        <f t="shared" si="3"/>
         <v>22.797422493167609</v>
       </c>
-      <c r="H11" s="8">
-        <f>B11/F11</f>
+      <c r="J11" s="7">
+        <f>B11/H11</f>
         <v>14455.88110826712</v>
       </c>
-      <c r="I11" s="9">
-        <f t="shared" si="2"/>
+      <c r="K11" s="8">
+        <f t="shared" si="4"/>
         <v>60.698202372137608</v>
       </c>
-      <c r="J11" s="7">
-        <f t="shared" si="3"/>
+      <c r="L11" s="6">
+        <f t="shared" si="5"/>
         <v>-5.0174224931676079</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -861,27 +955,36 @@
       <c r="E12" s="4">
         <v>1533895</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>8469.6165746966599</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5139255589110183E-2</v>
+      </c>
+      <c r="H12" s="6">
         <v>1.6828395741793143</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" si="1"/>
+      <c r="I12" s="8">
+        <f t="shared" si="3"/>
         <v>9.401873551908535</v>
       </c>
-      <c r="H12" s="8">
-        <f t="shared" ref="H12:H22" si="4">B12/F12</f>
+      <c r="J12" s="7">
+        <f t="shared" ref="J12:J22" si="6">B12/H12</f>
         <v>15566.6947711135</v>
       </c>
-      <c r="I12" s="9">
-        <f t="shared" si="2"/>
+      <c r="K12" s="8">
+        <f t="shared" si="4"/>
         <v>7.6841643517054248</v>
       </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
+      <c r="L12" s="6">
+        <f t="shared" si="5"/>
         <v>9.9181264480914653</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -897,27 +1000,36 @@
       <c r="E13" s="4">
         <v>1721783</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>9388.9890119497086</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10854947554529359</v>
+      </c>
+      <c r="H13" s="6">
         <v>1.783229200630027</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="1"/>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
         <v>5.9654899962565233</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" si="4"/>
+      <c r="J13" s="7">
+        <f t="shared" si="6"/>
         <v>18761.435707860655</v>
       </c>
-      <c r="I13" s="9">
-        <f t="shared" si="2"/>
+      <c r="K13" s="8">
+        <f t="shared" si="4"/>
         <v>20.522923997170615</v>
       </c>
-      <c r="J13" s="7">
-        <f t="shared" si="3"/>
+      <c r="L13" s="6">
+        <f t="shared" si="5"/>
         <v>13.224510003743479</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -933,27 +1045,36 @@
       <c r="E14" s="4">
         <v>1903679</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>10258.869312580595</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2648984839982074E-2</v>
+      </c>
+      <c r="H14" s="6">
         <v>1.8139910293788037</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" si="1"/>
+      <c r="I14" s="8">
+        <f t="shared" si="3"/>
         <v>1.7250630899218411</v>
       </c>
-      <c r="H14" s="8">
-        <f t="shared" si="4"/>
+      <c r="J14" s="7">
+        <f t="shared" si="6"/>
         <v>24517.050679809534</v>
       </c>
-      <c r="I14" s="9">
-        <f t="shared" si="2"/>
+      <c r="K14" s="8">
+        <f t="shared" si="4"/>
         <v>30.677902595361584</v>
       </c>
-      <c r="J14" s="7">
-        <f t="shared" si="3"/>
+      <c r="L14" s="6">
+        <f t="shared" si="5"/>
         <v>10.794936910078158</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -969,27 +1090,36 @@
       <c r="E15" s="4">
         <v>2133128</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>11368.09057286697</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10812314949037516</v>
+      </c>
+      <c r="H15" s="6">
         <v>1.9061726452158347</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="1"/>
+      <c r="I15" s="8">
+        <f t="shared" si="3"/>
         <v>5.0817018576215567</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" si="4"/>
+      <c r="J15" s="7">
+        <f t="shared" si="6"/>
         <v>33515.379711456415</v>
       </c>
-      <c r="I15" s="9">
-        <f t="shared" si="2"/>
+      <c r="K15" s="8">
+        <f t="shared" si="4"/>
         <v>36.7023307540709</v>
       </c>
-      <c r="J15" s="7">
-        <f t="shared" si="3"/>
+      <c r="L15" s="6">
+        <f t="shared" si="5"/>
         <v>5.5382981423784425</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1005,27 +1135,36 @@
       <c r="E16" s="4">
         <v>2398945</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>12651.808437377022</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11292290963743667</v>
+      </c>
+      <c r="H16" s="6">
         <v>2.1202697932765187</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="1"/>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
         <v>11.231781580647016</v>
       </c>
-      <c r="H16" s="8">
-        <f t="shared" si="4"/>
+      <c r="J16" s="7">
+        <f t="shared" si="6"/>
         <v>17710.156565487046</v>
       </c>
-      <c r="I16" s="9">
-        <f t="shared" si="2"/>
+      <c r="K16" s="8">
+        <f t="shared" si="4"/>
         <v>-47.158120486896159</v>
       </c>
-      <c r="J16" s="7">
-        <f t="shared" si="3"/>
+      <c r="L16" s="6">
+        <f t="shared" si="5"/>
         <v>3.1282184193529829</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1041,27 +1180,36 @@
       <c r="E17" s="4">
         <v>2666752</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>13927.006611582592</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10079177064033584</v>
+      </c>
+      <c r="H17" s="6">
         <v>2.15825173960841</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" si="1"/>
+      <c r="I17" s="8">
+        <f t="shared" si="3"/>
         <v>1.7913732701533513</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" si="4"/>
+      <c r="J17" s="7">
+        <f t="shared" si="6"/>
         <v>31779.615297539192</v>
       </c>
-      <c r="I17" s="9">
-        <f t="shared" si="2"/>
+      <c r="K17" s="8">
+        <f t="shared" si="4"/>
         <v>79.442881716078276</v>
       </c>
-      <c r="J17" s="7">
-        <f t="shared" si="3"/>
+      <c r="L17" s="6">
+        <f t="shared" si="5"/>
         <v>7.3286267298466479</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1077,27 +1225,36 @@
       <c r="E18" s="4">
         <v>3045956.1260000002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>15761.526949463512</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13172395110053414</v>
+      </c>
+      <c r="H18" s="6">
         <v>2.278629450187895</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" si="1"/>
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
         <v>5.5775565180976594</v>
       </c>
-      <c r="H18" s="8">
-        <f t="shared" si="4"/>
+      <c r="J18" s="7">
+        <f t="shared" si="6"/>
         <v>30415.129583392838</v>
       </c>
-      <c r="I18" s="9">
-        <f t="shared" si="2"/>
+      <c r="K18" s="8">
+        <f t="shared" si="4"/>
         <v>-4.2935878907634617</v>
       </c>
-      <c r="J18" s="7">
-        <f t="shared" si="3"/>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
         <v>5.8724434819023399</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1113,27 +1270,36 @@
       <c r="E19" s="4">
         <v>3356136.4679999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>17216.899608190386</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2337034564814902E-2</v>
+      </c>
+      <c r="H19" s="6">
         <v>2.4728095596775481</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="1"/>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
         <v>8.5217940755413899</v>
       </c>
-      <c r="H19" s="8">
-        <f t="shared" si="4"/>
+      <c r="J19" s="7">
+        <f t="shared" si="6"/>
         <v>22951.253879575215</v>
       </c>
-      <c r="I19" s="9">
-        <f t="shared" si="2"/>
+      <c r="K19" s="8">
+        <f t="shared" si="4"/>
         <v>-24.540009548054076</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" si="3"/>
+      <c r="L19" s="6">
+        <f t="shared" si="5"/>
         <v>2.9282059244586094</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1149,27 +1315,36 @@
       <c r="E20" s="4">
         <v>3688995.0178811499</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>18770.999857414245</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>9.0265976139196624E-2</v>
+      </c>
+      <c r="H20" s="6">
         <v>2.6206391852308339</v>
       </c>
-      <c r="G20" s="9">
-        <f t="shared" si="1"/>
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
         <v>5.978205033005568</v>
       </c>
-      <c r="H20" s="8">
-        <f t="shared" si="4"/>
+      <c r="J20" s="7">
+        <f t="shared" si="6"/>
         <v>23258.478444307912</v>
       </c>
-      <c r="I20" s="9">
-        <f t="shared" si="2"/>
+      <c r="K20" s="8">
+        <f t="shared" si="4"/>
         <v>1.3385959928145841</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="3"/>
+      <c r="L20" s="6">
+        <f t="shared" si="5"/>
         <v>0.83179496699443156</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -1185,27 +1360,36 @@
       <c r="E21" s="4">
         <v>4086546.5980000002</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>20634.609629852705</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9281326865620523E-2</v>
+      </c>
+      <c r="H21" s="6">
         <v>2.7800272041580181</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="1"/>
+      <c r="I21" s="8">
+        <f t="shared" si="3"/>
         <v>6.082028377864801</v>
       </c>
-      <c r="H21" s="8">
-        <f t="shared" si="4"/>
+      <c r="J21" s="7">
+        <f t="shared" si="6"/>
         <v>18527.574090988037</v>
       </c>
-      <c r="I21" s="9">
-        <f t="shared" si="2"/>
+      <c r="K21" s="8">
+        <f t="shared" si="4"/>
         <v>-20.340558238355776</v>
       </c>
-      <c r="J21" s="7">
-        <f t="shared" si="3"/>
+      <c r="L21" s="6">
+        <f t="shared" si="5"/>
         <v>3.8179716221351994</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -1219,25 +1403,28 @@
         <v>199492433</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="7">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6">
         <v>2.9290673021849734</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" si="1"/>
+      <c r="I22" s="8">
+        <f t="shared" si="3"/>
         <v>5.3611021433185968</v>
       </c>
-      <c r="H22" s="8">
-        <f t="shared" si="4"/>
+      <c r="J22" s="7">
+        <f t="shared" si="6"/>
         <v>17072.810161342612</v>
       </c>
-      <c r="I22" s="9">
-        <f t="shared" si="2"/>
+      <c r="K22" s="8">
+        <f t="shared" si="4"/>
         <v>-7.851885640835377</v>
       </c>
-      <c r="J22" s="7">
-        <f t="shared" si="3"/>
+      <c r="L22" s="6">
+        <f t="shared" si="5"/>
         <v>6.8088978566814031</v>
       </c>
+      <c r="N22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1294,7 +1481,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/Macro_III/Lista_01/ex7/dados.xlsx
+++ b/Macro_III/Lista_01/ex7/dados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18717"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B34848\Downloads\epge_hw-master\Macro_III\Lista_01\ex7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35201581-89FB-4736-9685-8D465D6C3085}" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fonte!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,15 +40,48 @@
     <t>SELIC</t>
   </si>
   <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>CONS_FINAL</t>
+  </si>
+  <si>
+    <t>CONS_PC</t>
+  </si>
+  <si>
+    <t>VAR_CONS_PC</t>
+  </si>
+  <si>
+    <t>IGP_DI</t>
+  </si>
+  <si>
+    <t>INFLACAO</t>
+  </si>
+  <si>
+    <t>IBOVESPA_DEF</t>
+  </si>
+  <si>
+    <t>R_s</t>
+  </si>
+  <si>
+    <t>R_f</t>
+  </si>
+  <si>
+    <t>Ibovespa</t>
+  </si>
+  <si>
+    <t>BMF/Bovespa</t>
+  </si>
+  <si>
+    <t>http://www.bmfbovespa.com.br/pt_br/produtos/indices/indices-amplos/indice-ibovespa-ibovespa-estatisticas-historicas.htm</t>
+  </si>
+  <si>
+    <t>Selic</t>
+  </si>
+  <si>
     <t>Ipeadata</t>
   </si>
   <si>
-    <t>BMF/Bovespa</t>
-  </si>
-  <si>
-    <t>http://www.bmfbovespa.com.br/pt_br/produtos/indices/indices-amplos/indice-ibovespa-ibovespa-estatisticas-historicas.htm</t>
-  </si>
-  <si>
     <t>http://www.ipeadata.gov.br/ExibeSerie.aspx?serid=38402</t>
   </si>
   <si>
@@ -60,51 +94,18 @@
     <t>https://seriesestatisticas.ibge.gov.br/series.aspx?no=10&amp;op=0&amp;vcodigo=POP300&amp;t=revisao-2008-projecao-populacao-brasil</t>
   </si>
   <si>
-    <t>Ibovespa</t>
-  </si>
-  <si>
-    <t>Selic</t>
-  </si>
-  <si>
     <t>Consumo final</t>
-  </si>
-  <si>
-    <t>R_s</t>
-  </si>
-  <si>
-    <t>R_f</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>CONS_FINAL</t>
-  </si>
-  <si>
-    <t>CONS_PC</t>
-  </si>
-  <si>
-    <t>VAR_CONS_PC</t>
-  </si>
-  <si>
-    <t>IGP_DI</t>
-  </si>
-  <si>
-    <t>INFLACAO</t>
-  </si>
-  <si>
-    <t>IBOVESPA_DEF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +152,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -165,7 +166,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -448,14 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A23" sqref="A23:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
@@ -467,7 +467,7 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,34 +478,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -513,7 +513,7 @@
         <v>4353.92</v>
       </c>
       <c r="C2">
-        <v>56.4</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D2" s="4">
         <v>156430949</v>
@@ -534,7 +534,7 @@
         <v>11500.499540745212</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -542,7 +542,7 @@
         <v>4299</v>
       </c>
       <c r="C3">
-        <v>38.92</v>
+        <v>0.38919999999999999</v>
       </c>
       <c r="D3" s="4">
         <v>158874963</v>
@@ -562,24 +562,23 @@
         <v>0.63396967074093591</v>
       </c>
       <c r="I3" s="8">
-        <f>(H3/H2-1)*100</f>
-        <v>67.457553358870314</v>
+        <f>(H3/H2-1)</f>
+        <v>0.67457553358870315</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>6781.0814908158827</v>
       </c>
       <c r="K3" s="8">
-        <f>(J3/J2-1)*100</f>
-        <v>-41.036635262745456</v>
+        <f>(J3/J2-1)</f>
+        <v>-0.41036635262745458</v>
       </c>
       <c r="L3" s="6">
         <f>C3-I3</f>
-        <v>-28.537553358870312</v>
-      </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0.28537553358870316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -587,7 +586,7 @@
         <v>7039.94</v>
       </c>
       <c r="C4">
-        <v>23.94</v>
+        <v>0.2394</v>
       </c>
       <c r="D4" s="4">
         <v>161323169</v>
@@ -607,24 +606,23 @@
         <v>0.70430882336536416</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I22" si="3">(H4/H3-1)*100</f>
-        <v>11.095034332197805</v>
+        <f t="shared" ref="I4:I22" si="3">(H4/H3-1)</f>
+        <v>0.11095034332197806</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
         <v>9995.5300380327499</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K22" si="4">(J4/J3-1)*100</f>
-        <v>47.403184161264413</v>
+        <f t="shared" ref="K4:K22" si="4">(J4/J3-1)</f>
+        <v>0.47403184161264411</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L22" si="5">C4-I4</f>
-        <v>12.844965667802196</v>
-      </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.12844965667802194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -632,7 +630,7 @@
         <v>10196.5</v>
       </c>
       <c r="C5">
-        <v>42.12</v>
+        <v>0.42119999999999996</v>
       </c>
       <c r="D5" s="4">
         <v>163779827</v>
@@ -653,7 +651,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="3"/>
-        <v>7.9120619537392578</v>
+        <v>7.9120619537392578E-2</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
@@ -661,15 +659,14 @@
       </c>
       <c r="K5" s="8">
         <f t="shared" si="4"/>
-        <v>34.21843630708441</v>
+        <v>0.3421843630708441</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="5"/>
-        <v>34.207938046260736</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.34207938046260739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -677,7 +674,7 @@
         <v>6784.3</v>
       </c>
       <c r="C6">
-        <v>32.950000000000003</v>
+        <v>0.32950000000000002</v>
       </c>
       <c r="D6" s="4">
         <v>166252088</v>
@@ -698,7 +695,7 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" si="3"/>
-        <v>3.887214917950188</v>
+        <v>3.887214917950188E-2</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
@@ -706,15 +703,14 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" si="4"/>
-        <v>-35.95402862087721</v>
+        <v>-0.3595402862087721</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="5"/>
-        <v>29.062785082049814</v>
-      </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.29062785082049813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -722,7 +718,7 @@
         <v>17091.599999999999</v>
       </c>
       <c r="C7">
-        <v>20.98</v>
+        <v>0.20980000000000001</v>
       </c>
       <c r="D7" s="4">
         <v>168753552</v>
@@ -743,7 +739,7 @@
       </c>
       <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>11.319259004887927</v>
+        <v>0.11319259004887927</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
@@ -751,15 +747,14 @@
       </c>
       <c r="K7" s="8">
         <f t="shared" si="4"/>
-        <v>126.31188891025636</v>
+        <v>1.2631188891025635</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="5"/>
-        <v>9.6607409951120733</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9.6607409951120743E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -767,7 +762,7 @@
         <v>15259.2</v>
       </c>
       <c r="C8">
-        <v>15.36</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="D8" s="4">
         <v>171279882</v>
@@ -788,7 +783,7 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="3"/>
-        <v>13.771758175497805</v>
+        <v>0.13771758175497806</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
@@ -796,15 +791,14 @@
       </c>
       <c r="K8" s="8">
         <f t="shared" si="4"/>
-        <v>-21.528026397402545</v>
+        <v>-0.21528026397402544</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="5"/>
-        <v>1.5882418245021945</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5882418245021929E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -812,7 +806,7 @@
         <v>13577.5</v>
       </c>
       <c r="C9">
-        <v>18.07</v>
+        <v>0.1807</v>
       </c>
       <c r="D9" s="4">
         <v>173808010</v>
@@ -833,7 +827,7 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" si="3"/>
-        <v>10.36105084516854</v>
+        <v>0.1036105084516854</v>
       </c>
       <c r="J9" s="7">
         <f>B9/H9</f>
@@ -841,15 +835,14 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" si="4"/>
-        <v>-19.374537479994935</v>
+        <v>-0.19374537479994935</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="5"/>
-        <v>7.7089491548314601</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.7089491548314598E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -857,7 +850,7 @@
         <v>11268.4</v>
       </c>
       <c r="C10">
-        <v>23.03</v>
+        <v>0.2303</v>
       </c>
       <c r="D10" s="4">
         <v>176303919</v>
@@ -878,7 +871,7 @@
       </c>
       <c r="I10" s="8">
         <f t="shared" si="3"/>
-        <v>13.504447415115294</v>
+        <v>0.13504447415115295</v>
       </c>
       <c r="J10" s="7">
         <f>B10/H10</f>
@@ -886,15 +879,14 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" si="4"/>
-        <v>-26.881114222067339</v>
+        <v>-0.26881114222067337</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="5"/>
-        <v>9.5255525848847071</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9.5255525848847056E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -902,7 +894,7 @@
         <v>22236.3</v>
       </c>
       <c r="C11">
-        <v>17.78</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="D11" s="4">
         <v>178741412</v>
@@ -923,7 +915,7 @@
       </c>
       <c r="I11" s="8">
         <f t="shared" si="3"/>
-        <v>22.797422493167609</v>
+        <v>0.22797422493167607</v>
       </c>
       <c r="J11" s="7">
         <f>B11/H11</f>
@@ -931,15 +923,14 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" si="4"/>
-        <v>60.698202372137608</v>
+        <v>0.60698202372137611</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="5"/>
-        <v>-5.0174224931676079</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-5.0174224931676059E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -947,7 +938,7 @@
         <v>26196.25</v>
       </c>
       <c r="C12">
-        <v>19.32</v>
+        <v>0.19320000000000001</v>
       </c>
       <c r="D12" s="4">
         <v>181105601</v>
@@ -968,7 +959,7 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" si="3"/>
-        <v>9.401873551908535</v>
+        <v>9.401873551908535E-2</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ref="J12:J22" si="6">B12/H12</f>
@@ -976,15 +967,14 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" si="4"/>
-        <v>7.6841643517054248</v>
+        <v>7.6841643517054248E-2</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="5"/>
-        <v>9.9181264480914653</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9.918126448091466E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -992,7 +982,7 @@
         <v>33455.94</v>
       </c>
       <c r="C13">
-        <v>19.190000000000001</v>
+        <v>0.19190000000000002</v>
       </c>
       <c r="D13" s="4">
         <v>183383216</v>
@@ -1013,7 +1003,7 @@
       </c>
       <c r="I13" s="8">
         <f t="shared" si="3"/>
-        <v>5.9654899962565233</v>
+        <v>5.9654899962565233E-2</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="6"/>
@@ -1021,15 +1011,14 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" si="4"/>
-        <v>20.522923997170615</v>
+        <v>0.20522923997170617</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="5"/>
-        <v>13.224510003743479</v>
-      </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.13224510003743478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1037,7 +1026,7 @@
         <v>44473.71</v>
       </c>
       <c r="C14">
-        <v>12.52</v>
+        <v>0.12520000000000001</v>
       </c>
       <c r="D14" s="4">
         <v>185564212</v>
@@ -1058,7 +1047,7 @@
       </c>
       <c r="I14" s="8">
         <f t="shared" si="3"/>
-        <v>1.7250630899218411</v>
+        <v>1.7250630899218411E-2</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="6"/>
@@ -1066,15 +1055,14 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" si="4"/>
-        <v>30.677902595361584</v>
+        <v>0.30677902595361584</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="5"/>
-        <v>10.794936910078158</v>
-      </c>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.10794936910078159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1082,7 +1070,7 @@
         <v>63886.1</v>
       </c>
       <c r="C15">
-        <v>10.62</v>
+        <v>0.10619999999999999</v>
       </c>
       <c r="D15" s="4">
         <v>187641714</v>
@@ -1103,7 +1091,7 @@
       </c>
       <c r="I15" s="8">
         <f t="shared" si="3"/>
-        <v>5.0817018576215567</v>
+        <v>5.0817018576215567E-2</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="6"/>
@@ -1111,15 +1099,14 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" si="4"/>
-        <v>36.7023307540709</v>
+        <v>0.367023307540709</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="5"/>
-        <v>5.5382981423784425</v>
-      </c>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.5382981423784422E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1127,7 +1114,7 @@
         <v>37550.31</v>
       </c>
       <c r="C16">
-        <v>14.36</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="D16" s="4">
         <v>189612814</v>
@@ -1148,7 +1135,7 @@
       </c>
       <c r="I16" s="8">
         <f t="shared" si="3"/>
-        <v>11.231781580647016</v>
+        <v>0.11231781580647016</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="6"/>
@@ -1156,15 +1143,14 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" si="4"/>
-        <v>-47.158120486896159</v>
+        <v>-0.4715812048689616</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="5"/>
-        <v>3.1282184193529829</v>
-      </c>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.1282184193529849E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1172,7 +1158,7 @@
         <v>68588.41</v>
       </c>
       <c r="C17">
-        <v>9.1199999999999992</v>
+        <v>9.1199999999999989E-2</v>
       </c>
       <c r="D17" s="4">
         <v>191480630</v>
@@ -1193,7 +1179,7 @@
       </c>
       <c r="I17" s="8">
         <f t="shared" si="3"/>
-        <v>1.7913732701533513</v>
+        <v>1.7913732701533513E-2</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="6"/>
@@ -1201,15 +1187,14 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" si="4"/>
-        <v>79.442881716078276</v>
+        <v>0.79442881716078273</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="5"/>
-        <v>7.3286267298466479</v>
-      </c>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.3286267298466476E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1217,7 +1202,7 @@
         <v>69304.81</v>
       </c>
       <c r="C18">
-        <v>11.45</v>
+        <v>0.11449999999999999</v>
       </c>
       <c r="D18" s="4">
         <v>193252604</v>
@@ -1238,7 +1223,7 @@
       </c>
       <c r="I18" s="8">
         <f t="shared" si="3"/>
-        <v>5.5775565180976594</v>
+        <v>5.5775565180976594E-2</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="6"/>
@@ -1246,15 +1231,14 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" si="4"/>
-        <v>-4.2935878907634617</v>
+        <v>-4.2935878907634617E-2</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="5"/>
-        <v>5.8724434819023399</v>
-      </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.8724434819023397E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1262,7 +1246,7 @@
         <v>56754.080000000002</v>
       </c>
       <c r="C19">
-        <v>11.45</v>
+        <v>0.11449999999999999</v>
       </c>
       <c r="D19" s="4">
         <v>194932685</v>
@@ -1283,7 +1267,7 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" si="3"/>
-        <v>8.5217940755413899</v>
+        <v>8.521794075541389E-2</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="6"/>
@@ -1291,15 +1275,14 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" si="4"/>
-        <v>-24.540009548054076</v>
+        <v>-0.24540009548054076</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="5"/>
-        <v>2.9282059244586094</v>
-      </c>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.9282059244586101E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1307,7 +1290,7 @@
         <v>60952.08</v>
       </c>
       <c r="C20">
-        <v>6.81</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="D20" s="4">
         <v>196526293</v>
@@ -1328,7 +1311,7 @@
       </c>
       <c r="I20" s="8">
         <f t="shared" si="3"/>
-        <v>5.978205033005568</v>
+        <v>5.978205033005568E-2</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="6"/>
@@ -1336,15 +1319,14 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" si="4"/>
-        <v>1.3385959928145841</v>
+        <v>1.3385959928145841E-2</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="5"/>
-        <v>0.83179496699443156</v>
-      </c>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8.3179496699443134E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -1352,7 +1334,7 @@
         <v>51507.16</v>
       </c>
       <c r="C21">
-        <v>9.9</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D21" s="4">
         <v>198043320</v>
@@ -1373,7 +1355,7 @@
       </c>
       <c r="I21" s="8">
         <f t="shared" si="3"/>
-        <v>6.082028377864801</v>
+        <v>6.082028377864801E-2</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="6"/>
@@ -1381,15 +1363,14 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" si="4"/>
-        <v>-20.340558238355776</v>
+        <v>-0.20340558238355777</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="5"/>
-        <v>3.8179716221351994</v>
-      </c>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.8179716221351995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -1397,7 +1378,7 @@
         <v>50007.41</v>
       </c>
       <c r="C22">
-        <v>12.17</v>
+        <v>0.1217</v>
       </c>
       <c r="D22" s="4">
         <v>199492433</v>
@@ -1410,7 +1391,7 @@
       </c>
       <c r="I22" s="8">
         <f t="shared" si="3"/>
-        <v>5.3611021433185968</v>
+        <v>5.3611021433185968E-2</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="6"/>
@@ -1418,13 +1399,12 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" si="4"/>
-        <v>-7.851885640835377</v>
+        <v>-7.8518856408353765E-2</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="5"/>
-        <v>6.8088978566814031</v>
-      </c>
-      <c r="N22" s="9"/>
+        <v>6.8088978566814035E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1432,66 +1412,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="117.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Macro_III/Lista_01/ex7/dados.xlsx
+++ b/Macro_III/Lista_01/ex7/dados.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fonte!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,11 +100,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -208,7 +208,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -593,7 +593,7 @@
         <v>1.5101946774109129E-2</v>
       </c>
       <c r="J2" s="6">
-        <f>B2/H2</f>
+        <f t="shared" ref="J2:J22" si="1">B2/H2</f>
         <v>24861.033191010432</v>
       </c>
       <c r="K2" s="7"/>
@@ -620,7 +620,7 @@
         <v>1730.1196325287267</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G5" si="1">F3/F2-1</f>
+        <f t="shared" ref="G3:G5" si="2">F3/F2-1</f>
         <v>23.307794197975795</v>
       </c>
       <c r="H3" s="5">
@@ -631,7 +631,7 @@
         <v>24.068636558525082</v>
       </c>
       <c r="J3" s="6">
-        <f>B3/H3</f>
+        <f t="shared" si="1"/>
         <v>11500.501940962429</v>
       </c>
       <c r="K3" s="7">
@@ -639,7 +639,7 @@
         <v>-0.53740852793193938</v>
       </c>
       <c r="L3" s="5">
-        <f>C3-I3</f>
+        <f t="shared" ref="L3:L22" si="3">C3-I3</f>
         <v>-23.504636558525082</v>
       </c>
     </row>
@@ -664,18 +664,18 @@
         <v>3708.232773253505</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1433389365298323</v>
       </c>
       <c r="H4" s="5">
         <v>0.63396988351946371</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I22" si="2">H4/H3-1</f>
+        <f t="shared" ref="I4:I22" si="4">H4/H3-1</f>
         <v>0.67457644511780601</v>
       </c>
       <c r="J4" s="6">
-        <f>B4/H4</f>
+        <f t="shared" si="1"/>
         <v>6781.07921488989</v>
       </c>
       <c r="K4" s="7">
@@ -683,7 +683,7 @@
         <v>-0.41036667358516965</v>
       </c>
       <c r="L4" s="5">
-        <f>C4-I4</f>
+        <f t="shared" si="3"/>
         <v>-0.28537644511780602</v>
       </c>
     </row>
@@ -708,26 +708,26 @@
         <v>4434.1973799938369</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19577104543612278</v>
       </c>
       <c r="H5" s="5">
         <v>0.70430876002484255</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11094987054415717</v>
       </c>
       <c r="J5" s="6">
-        <f>B5/H5</f>
+        <f t="shared" si="1"/>
         <v>9995.5309369596434</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K22" si="3">(J5/J4-1)</f>
+        <f t="shared" ref="K5:K22" si="5">(J5/J4-1)</f>
         <v>0.4740324689042803</v>
       </c>
       <c r="L5" s="5">
-        <f>C5-I5</f>
+        <f t="shared" si="3"/>
         <v>0.12845012945584283</v>
       </c>
     </row>
@@ -748,30 +748,30 @@
         <v>796147.10805906705</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F22" si="4">E6/D6*1000000</f>
+        <f t="shared" ref="F6:F22" si="6">E6/D6*1000000</f>
         <v>4861.0816279532828</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G22" si="5">F6/F5-1</f>
+        <f t="shared" ref="G6:G22" si="7">F6/F5-1</f>
         <v>9.6270917006414214E-2</v>
       </c>
       <c r="H6" s="5">
         <v>0.76003401553253669</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9120491850376284E-2</v>
       </c>
       <c r="J6" s="6">
-        <f>B6/H6</f>
+        <f t="shared" si="1"/>
         <v>13415.84691160904</v>
       </c>
       <c r="K6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34218452188491355</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="3"/>
-        <v>0.34218452188491355</v>
-      </c>
-      <c r="L6" s="5">
-        <f>C6-I6</f>
         <v>0.34207950814962368</v>
       </c>
     </row>
@@ -792,30 +792,30 @@
         <v>832102.18808447698</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5005.0630827835193</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9619221780247784E-2</v>
       </c>
       <c r="H7" s="5">
         <v>0.7895785343859586</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8872627079356237E-2</v>
       </c>
       <c r="J7" s="6">
-        <f>B7/H7</f>
+        <f t="shared" si="1"/>
         <v>8592.3055206611352</v>
       </c>
       <c r="K7" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.35954058083161222</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="3"/>
-        <v>-0.35954058083161222</v>
-      </c>
-      <c r="L7" s="5">
-        <f>C7-I7</f>
         <v>0.29062737292064378</v>
       </c>
     </row>
@@ -836,30 +836,30 @@
         <v>905549.87054350204</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5366.1085044509282</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2136038186878748E-2</v>
       </c>
       <c r="H8" s="5">
         <v>0.87895294320150696</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11319255137179396</v>
       </c>
       <c r="J8" s="6">
-        <f>B8/H8</f>
+        <f t="shared" si="1"/>
         <v>19445.40960036539</v>
       </c>
       <c r="K8" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2631189677330239</v>
+      </c>
+      <c r="L8" s="5">
         <f t="shared" si="3"/>
-        <v>1.2631189677330239</v>
-      </c>
-      <c r="L8" s="5">
-        <f>C8-I8</f>
         <v>9.6607448628206055E-2</v>
       </c>
     </row>
@@ -880,30 +880,30 @@
         <v>985026</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5750.9731353037714</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1721365778127044E-2</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13771733485252358</v>
       </c>
       <c r="J9" s="6">
-        <f>B9/H9</f>
+        <f t="shared" si="1"/>
         <v>15259.2</v>
       </c>
       <c r="K9" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.21528009367757051</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="3"/>
-        <v>-0.21528009367757051</v>
-      </c>
-      <c r="L9" s="5">
-        <f>C9-I9</f>
         <v>1.588266514747641E-2</v>
       </c>
     </row>
@@ -924,30 +924,30 @@
         <v>1084511</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6239.7066740479913</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.498275461312943E-2</v>
       </c>
       <c r="H10" s="5">
         <v>1.1036103192679321</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10361031926793207</v>
       </c>
       <c r="J10" s="6">
-        <f>B10/H10</f>
+        <f t="shared" si="1"/>
         <v>12302.802685830708</v>
       </c>
       <c r="K10" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.19374523658968312</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="3"/>
-        <v>-0.19374523658968312</v>
-      </c>
-      <c r="L10" s="5">
-        <f>C10-I10</f>
         <v>7.7089680732067928E-2</v>
       </c>
     </row>
@@ -968,30 +968,30 @@
         <v>1216102</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6897.7593175339453</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10546211190069354</v>
       </c>
       <c r="H11" s="5">
         <v>1.2526468066461949</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13504448515588785</v>
       </c>
       <c r="J11" s="6">
-        <f>B11/H11</f>
+        <f t="shared" si="1"/>
         <v>8995.6721561201521</v>
       </c>
       <c r="K11" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.26881114930985761</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="3"/>
-        <v>-0.26881114930985761</v>
-      </c>
-      <c r="L11" s="5">
-        <f>C11-I11</f>
         <v>9.5255514844112155E-2</v>
       </c>
     </row>
@@ -1012,30 +1012,30 @@
         <v>1382355</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7733.826115237358</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12120846193895884</v>
       </c>
       <c r="H12" s="5">
         <v>1.5382181019397596</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22797431309320637</v>
       </c>
       <c r="J12" s="6">
-        <f>B12/H12</f>
+        <f t="shared" si="1"/>
         <v>14455.882408326272</v>
       </c>
       <c r="K12" s="7">
+        <f t="shared" si="5"/>
+        <v>0.60698190834926091</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="3"/>
-        <v>0.60698190834926091</v>
-      </c>
-      <c r="L12" s="5">
-        <f>C12-I12</f>
         <v>-5.0174313093206357E-2</v>
       </c>
     </row>
@@ -1056,30 +1056,30 @@
         <v>1533895</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8469.6165746966599</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.5139255589110183E-2</v>
       </c>
       <c r="H13" s="5">
         <v>1.68283969262995</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.4018910912448961E-2</v>
       </c>
       <c r="J13" s="6">
-        <f>B13/H13</f>
+        <f t="shared" si="1"/>
         <v>15566.693675415021</v>
       </c>
       <c r="K13" s="7">
+        <f t="shared" si="5"/>
+        <v>7.6841470877553997E-2</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="3"/>
-        <v>7.6841470877553997E-2</v>
-      </c>
-      <c r="L13" s="5">
-        <f>C13-I13</f>
         <v>9.918108908755105E-2</v>
       </c>
     </row>
@@ -1100,30 +1100,30 @@
         <v>1721783</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9388.9890119497086</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10854947554529359</v>
       </c>
       <c r="H14" s="5">
         <v>1.7832292201194537</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9654836957532487E-2</v>
       </c>
       <c r="J14" s="6">
-        <f>B14/H14</f>
+        <f t="shared" si="1"/>
         <v>18761.43550281151</v>
       </c>
       <c r="K14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.20522931163231184</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="3"/>
-        <v>0.20522931163231184</v>
-      </c>
-      <c r="L14" s="5">
-        <f>C14-I14</f>
         <v>0.13224516304246753</v>
       </c>
     </row>
@@ -1144,30 +1144,30 @@
         <v>1903679</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10258.869312580595</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.2648984839982074E-2</v>
       </c>
       <c r="H15" s="5">
         <v>1.8139910461017303</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7250629159282216E-2</v>
       </c>
       <c r="J15" s="6">
-        <f>B15/H15</f>
+        <f t="shared" si="1"/>
         <v>24517.050453790318</v>
       </c>
       <c r="K15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.30677902818877034</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="3"/>
-        <v>0.30677902818877034</v>
-      </c>
-      <c r="L15" s="5">
-        <f>C15-I15</f>
         <v>0.10794937084071779</v>
       </c>
     </row>
@@ -1188,30 +1188,30 @@
         <v>2133128</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11368.09057286697</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10812314949037516</v>
       </c>
       <c r="H16" s="5">
         <v>1.9061723838553564</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0816864808524764E-2</v>
       </c>
       <c r="J16" s="6">
-        <f>B16/H16</f>
+        <f t="shared" si="1"/>
         <v>33515.384306841253</v>
       </c>
       <c r="K16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.36702350757938751</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="3"/>
-        <v>0.36702350757938751</v>
-      </c>
-      <c r="L16" s="5">
-        <f>C16-I16</f>
         <v>5.5383135191475225E-2</v>
       </c>
     </row>
@@ -1232,30 +1232,30 @@
         <v>2398945</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12651.808437377022</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11292290963743667</v>
       </c>
       <c r="H17" s="5">
         <v>2.1202695126616669</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11231782110560506</v>
       </c>
       <c r="J17" s="6">
-        <f>B17/H17</f>
+        <f t="shared" si="1"/>
         <v>17710.158909402726</v>
       </c>
       <c r="K17" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.47158120738637399</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="3"/>
-        <v>-0.47158120738637399</v>
-      </c>
-      <c r="L17" s="5">
-        <f>C17-I17</f>
         <v>3.1282178894394941E-2</v>
       </c>
     </row>
@@ -1276,30 +1276,30 @@
         <v>2666752</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13927.006611582592</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10079177064033584</v>
       </c>
       <c r="H18" s="5">
         <v>2.1582515455106135</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7913775877136606E-2</v>
       </c>
       <c r="J18" s="6">
-        <f>B18/H18</f>
+        <f t="shared" si="1"/>
         <v>31779.618155571807</v>
       </c>
       <c r="K18" s="7">
+        <f t="shared" si="5"/>
+        <v>0.79442874104869188</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="3"/>
-        <v>0.79442874104869188</v>
-      </c>
-      <c r="L18" s="5">
-        <f>C18-I18</f>
         <v>7.3286224122863383E-2</v>
       </c>
     </row>
@@ -1320,30 +1320,30 @@
         <v>3045956.1260000002</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15761.526949463512</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13172395110053414</v>
       </c>
       <c r="H19" s="5">
         <v>2.2786295150574309</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5775690186445681E-2</v>
       </c>
       <c r="J19" s="6">
-        <f>B19/H19</f>
+        <f t="shared" si="1"/>
         <v>30415.128717514759</v>
       </c>
       <c r="K19" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.2935992225501818E-2</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="3"/>
-        <v>-4.2935992225501818E-2</v>
-      </c>
-      <c r="L19" s="5">
-        <f>C19-I19</f>
         <v>5.872430981355431E-2</v>
       </c>
     </row>
@@ -1364,30 +1364,30 @@
         <v>3356136.4679999999</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17216.899608190386</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.2337034564814902E-2</v>
       </c>
       <c r="H20" s="5">
         <v>2.4728094272235412</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5217851731906658E-2</v>
       </c>
       <c r="J20" s="6">
-        <f>B20/H20</f>
+        <f t="shared" si="1"/>
         <v>22951.255108940284</v>
       </c>
       <c r="K20" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.24540003357856421</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
-        <v>-0.24540003357856421</v>
-      </c>
-      <c r="L20" s="5">
-        <f>C20-I20</f>
         <v>2.9282148268093333E-2</v>
       </c>
     </row>
@@ -1408,30 +1408,30 @@
         <v>3688995.0178811499</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18770.999857414245</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.0265976139196624E-2</v>
       </c>
       <c r="H21" s="5">
         <v>2.6206388596163217</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9781975418446542E-2</v>
       </c>
       <c r="J21" s="6">
-        <f>B21/H21</f>
+        <f t="shared" si="1"/>
         <v>23258.481334175049</v>
       </c>
       <c r="K21" s="7">
+        <f t="shared" si="5"/>
+        <v>1.3386031560212563E-2</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="3"/>
-        <v>1.3386031560212563E-2</v>
-      </c>
-      <c r="L21" s="5">
-        <f>C21-I21</f>
         <v>8.3180245815534515E-3</v>
       </c>
     </row>
@@ -1452,30 +1452,30 @@
         <v>4086546.5980000002</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20634.609629852705</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9281326865620523E-2</v>
       </c>
       <c r="H22" s="5">
         <v>2.7800267742817968</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0820251550727011E-2</v>
       </c>
       <c r="J22" s="6">
-        <f>B22/H22</f>
+        <f t="shared" si="1"/>
         <v>18527.576955911358</v>
       </c>
       <c r="K22" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.20340555818286798</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="3"/>
-        <v>-0.20340555818286798</v>
-      </c>
-      <c r="L22" s="5">
-        <f>C22-I22</f>
         <v>3.8179748449272993E-2</v>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1822,9 +1822,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
